--- a/read.xlsx
+++ b/read.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA5A96E-1D73-4034-9C50-46852E8DC42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A8F6C-C3EE-4465-84CE-C27258CBDAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="821" activeTab="3" xr2:uid="{9D563DAA-1399-44FE-BD46-B4C7870F05A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="5" xr2:uid="{9D563DAA-1399-44FE-BD46-B4C7870F05A5}"/>
   </bookViews>
   <sheets>
     <sheet name="文章ドリル解説編" sheetId="12" r:id="rId1"/>
     <sheet name="ロードマップ" sheetId="13" r:id="rId2"/>
     <sheet name="職種選択" sheetId="14" r:id="rId3"/>
     <sheet name="面接対策" sheetId="15" r:id="rId4"/>
+    <sheet name="PF" sheetId="16" r:id="rId5"/>
+    <sheet name="就活必須" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="202">
   <si>
     <t>テクニック</t>
     <phoneticPr fontId="1"/>
@@ -2114,10 +2116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Web業界</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１laravel</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2485,12 +2483,682 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>野村総合研究所で大規模</t>
+    <rPh sb="0" eb="7">
+      <t>ノムラソウゴウケンキュウショ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ダイキボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安定している</t>
+    <rPh sb="0" eb="2">
+      <t>アンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職理由（良かった点）</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術力が身につかない。エクセルだけ。</t>
+    <rPh sb="0" eb="3">
+      <t>ギジュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術が古い。サーバーは物理的な筐体。</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web業界、受託開発</t>
+    <rPh sb="6" eb="8">
+      <t>ジュタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろんな案件を一から経験したい。
+新しいことをどんどん勉強できる。
+開発経験を積みやすい</t>
+    <rPh sb="4" eb="6">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏側のロジックを実装する。
+ロジックをつくれる。裏側の仕組みをつくれる。</t>
+    <rPh sb="0" eb="2">
+      <t>ウラガワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ウラガワ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6Linux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7Git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8Web仕組み</t>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9Linter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード規約に従っているか調べるツール</t>
+    <rPh sb="3" eb="5">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10テスト方法</t>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11CI/CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9,10を管理する</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんでエンジニアに興味をもったのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12Linux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Udemyをうける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクションプラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードを綺麗に書く</t>
+    <rPh sb="4" eb="6">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードを読みやすく修正する</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダブルコードを読む。</t>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Docker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナ環境</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Udemyで学習する。
+PFをDocker環境で作成する。</t>
+    <rPh sb="6" eb="8">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI/CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストのプログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CircleCIを調べる。</t>
+    <rPh sb="9" eb="10">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業が求めているもの示すエビデンスを用意する</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNSを毎日投稿する。</t>
+    <rPh sb="4" eb="6">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業が求めているものを考える。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS資格を取る。</t>
+    <rPh sb="3" eb="5">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Udemyの終了PDF</t>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績をPDFやブログサイト（wordpress）にまとめる</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黙々会の参加と主催。</t>
+    <rPh sb="0" eb="2">
+      <t>モクモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績を作る。（coachtechpro）</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI/UXにこだわる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント①　エンジニアとして伸びそうか</t>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱意があるか</t>
+    <rPh sb="0" eb="2">
+      <t>ネツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コツコツ努力できるか</t>
+    <rPh sb="4" eb="6">
+      <t>ドリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術への興味があるか</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント②会社名に貢献できるか</t>
+    <rPh sb="5" eb="8">
+      <t>カイシャメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分から行動できるか</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良好なコミュニケーションがとれるか</t>
+    <rPh sb="0" eb="2">
+      <t>リョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人柄が良いか</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトガラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素直であること</t>
+    <rPh sb="0" eb="2">
+      <t>スナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリアの方向性と自分の方向性があっているか</t>
+    <rPh sb="5" eb="8">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社でやりたいことを理解して貰える</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習ログを残す</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSとDockerを勉強する</t>
+    <rPh sb="11" eb="13">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面接対策（意識すること）</t>
+    <rPh sb="0" eb="2">
+      <t>メンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面接対策（よく聞かれる質問）</t>
+    <rPh sb="0" eb="4">
+      <t>メンセツタイサク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜエンジニアになりたいのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情熱が高いかどうか</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウネツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今後のプランは</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社をすぐにやめないかどうか</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにか専門分野を任せられる人材になりたい。
+そのために、なにか1つの技術をみつけてマスターしたい。</t>
+    <rPh sb="3" eb="7">
+      <t>センモンブンヤ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンザイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムやってみてどうだったか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術の興味</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強みと弱み</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務内容と相性がよいか</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O9D18lhLa2Y&amp;t=1479s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志望理由</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルチャーマッチしているか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～に共感した。</t>
+    <rPh sb="2" eb="4">
+      <t>キョウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弊社でやってみたいこと</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分から課題をみつけて、行動できるか</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIを作ってみたい。</t>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜPHPを選んだか</t>
+    <rPh sb="6" eb="7">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的意識をもって取り組めているか</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2603,8 +3271,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2644,6 +3330,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,12 +3421,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2771,6 +3472,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2807,11 +3511,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3131,8 +3845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC457EF-3EAA-4F46-BD41-377F64803030}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="57" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3155,11 +3869,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
@@ -3285,11 +3999,11 @@
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
@@ -3307,11 +4021,11 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" ht="198.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
@@ -3358,11 +4072,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
@@ -3403,11 +4117,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:3" ht="380.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
@@ -3461,20 +4175,20 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="A36" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" ht="70.5" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="33" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3497,7 +4211,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3724,10 +4438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C523143-7E1B-4C63-8BC4-A9C76364F00C}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3738,14 +4452,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
@@ -3756,7 +4470,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -3764,20 +4478,26 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="191.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -3785,40 +4505,87 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3832,29 +4599,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2C8D01-330C-4197-B5BE-BB025FD574AC}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="25"/>
+      <c r="B2" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>101</v>
@@ -3863,35 +4632,72 @@
     </row>
     <row r="6" spans="2:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" t="s">
         <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
         <v>123</v>
       </c>
-      <c r="C7" t="s">
-        <v>124</v>
-      </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
         <v>125</v>
       </c>
-      <c r="D8" t="s">
-        <v>122</v>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3901,4 +4707,324 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1717F1-4F31-4F6D-A125-061CE42F5E80}">
+  <dimension ref="C3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F34D2F5-F147-4876-B581-50E09B1BDE8E}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C27" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C28" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C27:E27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0D7CEE6B-1079-42AC-A822-6501827912F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>